--- a/MainTop/13.02.2025/p2.xlsx
+++ b/MainTop/13.02.2025/p2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\13.02.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4992E4-B2E2-456D-AEEB-F060A2B68F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6A5B2C-B36B-4FF0-8AE8-6CA4D73523B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Артикул</t>
   </si>
@@ -86,21 +86,6 @@
   </si>
   <si>
     <t>Термонаклейка Шенячий Патруль и Логотип</t>
-  </si>
-  <si>
-    <t>Термонаклейка Фея</t>
-  </si>
-  <si>
-    <t>Термонаклейка Зайчики</t>
-  </si>
-  <si>
-    <t>Термонаклейка Собачки</t>
-  </si>
-  <si>
-    <t>Термонаклейка Мишка с сердечками</t>
-  </si>
-  <si>
-    <t>Термонаклейка Котята. Кот с пиццей</t>
   </si>
 </sst>
 </file>
@@ -472,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,91 +759,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="C18" s="2">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="C19" s="2">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="C20" s="2">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="C21" s="2">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2">
-        <v>30</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="C22" s="2">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2">
-        <v>30</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
